--- a/workingfolder/tables/reduced_form_results/RVEffResult_new.xlsx
+++ b/workingfolder/tables/reduced_form_results/RVEffResult_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tao/Dropbox/InfVar/workingfolder/tables/reduced_form_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/InfVar/workingfolder/tables/reduced_form_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43CDD72-AEC0-7844-A6E5-86DF345E83A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7169E4-B241-8646-81A2-7A3548E00A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23500" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23500" windowHeight="13820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -244,9 +244,6 @@
     <t>0.439</t>
   </si>
   <si>
-    <t>0.448</t>
-  </si>
-  <si>
     <t>0.393</t>
   </si>
   <si>
@@ -292,18 +289,6 @@
     <t>(0.003)</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -325,18 +310,9 @@
     <t>L26.InfExp_Mean_rv</t>
   </si>
   <si>
-    <t>-0.106</t>
-  </si>
-  <si>
     <t>(0.054)</t>
   </si>
   <si>
-    <t>(0.080)</t>
-  </si>
-  <si>
-    <t>(0.074)</t>
-  </si>
-  <si>
     <t>24m before</t>
   </si>
   <si>
@@ -394,118 +370,139 @@
     <t>5 q before</t>
   </si>
   <si>
-    <t>0.233*</t>
-  </si>
-  <si>
-    <t>(0.100)</t>
-  </si>
-  <si>
-    <t>0.225*</t>
-  </si>
-  <si>
-    <t>(0.103)</t>
-  </si>
-  <si>
-    <t>0.254*</t>
-  </si>
-  <si>
-    <t>(0.098)</t>
-  </si>
-  <si>
     <t>L12.InfExp_FE</t>
   </si>
   <si>
-    <t>-0.330***</t>
-  </si>
-  <si>
-    <t>-0.327***</t>
-  </si>
-  <si>
-    <t>-0.331***</t>
-  </si>
-  <si>
-    <t>0.504***</t>
-  </si>
-  <si>
-    <t>0.510***</t>
-  </si>
-  <si>
-    <t>0.530***</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.600</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>-0.679**</t>
-  </si>
-  <si>
-    <t>(0.202)</t>
-  </si>
-  <si>
-    <t>-0.740**</t>
-  </si>
-  <si>
-    <t>(0.216)</t>
-  </si>
-  <si>
-    <t>-0.874***</t>
-  </si>
-  <si>
-    <t>(0.201)</t>
-  </si>
-  <si>
-    <t>0.568***</t>
-  </si>
-  <si>
-    <t>0.600***</t>
-  </si>
-  <si>
-    <t>(0.101)</t>
-  </si>
-  <si>
-    <t>(0.092)</t>
-  </si>
-  <si>
-    <t>(0.091)</t>
-  </si>
-  <si>
     <t>L12.InfExp_FE2</t>
   </si>
   <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>-1.121***</t>
-  </si>
-  <si>
-    <t>-1.237***</t>
-  </si>
-  <si>
-    <t>-1.366***</t>
-  </si>
-  <si>
-    <t>(0.180)</t>
-  </si>
-  <si>
-    <t>(0.247)</t>
-  </si>
-  <si>
-    <t>(0.204)</t>
-  </si>
-  <si>
-    <t>(0.237)</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.402</t>
+    <t>-0.666***</t>
+  </si>
+  <si>
+    <t>(0.151)</t>
+  </si>
+  <si>
+    <t>-0.501*</t>
+  </si>
+  <si>
+    <t>(0.208)</t>
+  </si>
+  <si>
+    <t>-0.376</t>
+  </si>
+  <si>
+    <t>(0.219)</t>
+  </si>
+  <si>
+    <t>0.357***</t>
+  </si>
+  <si>
+    <t>0.328***</t>
+  </si>
+  <si>
+    <t>0.306***</t>
+  </si>
+  <si>
+    <t>(0.039)</t>
+  </si>
+  <si>
+    <t>0.778***</t>
+  </si>
+  <si>
+    <t>-0.623*</t>
+  </si>
+  <si>
+    <t>-0.426</t>
+  </si>
+  <si>
+    <t>-0.275</t>
+  </si>
+  <si>
+    <t>(0.225)</t>
+  </si>
+  <si>
+    <t>(0.272)</t>
+  </si>
+  <si>
+    <t>(0.337)</t>
+  </si>
+  <si>
+    <t>(0.345)</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>0.328**</t>
+  </si>
+  <si>
+    <t>(0.104)</t>
+  </si>
+  <si>
+    <t>0.334**</t>
+  </si>
+  <si>
+    <t>(0.106)</t>
+  </si>
+  <si>
+    <t>0.382***</t>
+  </si>
+  <si>
+    <t>(0.099)</t>
+  </si>
+  <si>
+    <t>-0.462***</t>
+  </si>
+  <si>
+    <t>-0.460***</t>
+  </si>
+  <si>
+    <t>-0.459***</t>
+  </si>
+  <si>
+    <t>(0.016)</t>
+  </si>
+  <si>
+    <t>0.365**</t>
+  </si>
+  <si>
+    <t>0.781***</t>
+  </si>
+  <si>
+    <t>0.790***</t>
+  </si>
+  <si>
+    <t>0.807***</t>
+  </si>
+  <si>
+    <t>(0.111)</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>0.926</t>
+  </si>
+  <si>
+    <t>0.931</t>
   </si>
 </sst>
 </file>
@@ -929,6 +926,16 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -957,16 +964,6 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,11 +2156,11 @@
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2286,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="83" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2303,44 +2300,44 @@
     <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="75" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="21"/>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
@@ -2349,38 +2346,38 @@
         <v>12</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="K3" s="24"/>
       <c r="L3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,13 +2410,13 @@
         <v>41</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="N4" s="42" t="s">
         <v>41</v>
@@ -2464,7 +2461,7 @@
         <v>41</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="N5" s="43" t="s">
         <v>41</v>
@@ -2516,7 +2513,7 @@
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>41</v>
@@ -2525,7 +2522,7 @@
         <v>41</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="O7" s="43" t="s">
         <v>41</v>
@@ -2566,7 +2563,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O8" s="43" t="s">
         <v>41</v>
@@ -2604,7 +2601,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G10" s="44" t="s">
         <v>41</v>
@@ -2619,7 +2616,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L10" s="45" t="s">
         <v>41</v>
@@ -2631,7 +2628,7 @@
         <v>41</v>
       </c>
       <c r="O10" s="43" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,7 +2646,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G11" s="44" t="s">
         <v>41</v>
@@ -2661,7 +2658,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>41</v>
@@ -2676,7 +2673,7 @@
         <v>41</v>
       </c>
       <c r="O11" s="43" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,19 +2705,19 @@
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="44" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>41</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2741,13 +2738,13 @@
         <v>41</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,22 +2791,22 @@
         <v>56</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K16" s="51" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="M16" s="43" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="N16" s="43" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2843,16 +2840,16 @@
       </c>
       <c r="K17" s="50"/>
       <c r="L17" s="43" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O17" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,34 +2867,34 @@
         <v>65</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G18" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="I18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="43" t="s">
-        <v>69</v>
-      </c>
       <c r="J18" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="51" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="N18" s="43" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2915,7 +2912,7 @@
         <v>1290</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G19" s="52">
         <v>1362</v>
@@ -2927,28 +2924,28 @@
         <v>1033</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K19" s="51" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="43" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>61</v>
@@ -2975,7 +2972,7 @@
         <v>61</v>
       </c>
       <c r="K20" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="62" t="s">
         <v>62</v>
@@ -3009,22 +3006,22 @@
     </row>
     <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
     </row>
     <row r="23" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
@@ -3033,38 +3030,38 @@
         <v>12</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O23" s="63" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3075,7 +3072,7 @@
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>16</v>
@@ -3083,20 +3080,20 @@
       <c r="F24" s="42"/>
       <c r="G24" s="66"/>
       <c r="H24" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>25</v>
       </c>
       <c r="J24" s="42"/>
       <c r="K24" s="44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L24" s="54" t="s">
         <v>41</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="N24" s="42" t="s">
         <v>41</v>
@@ -3113,7 +3110,7 @@
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>18</v>
@@ -3134,7 +3131,7 @@
         <v>41</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="N25" s="43" t="s">
         <v>41</v>
@@ -3174,7 +3171,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G27" s="66"/>
       <c r="H27" s="43" t="s">
@@ -3184,10 +3181,10 @@
         <v>41</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L27" s="45" t="s">
         <v>41</v>
@@ -3196,7 +3193,7 @@
         <v>41</v>
       </c>
       <c r="N27" s="43" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="O27" s="43" t="s">
         <v>41</v>
@@ -3213,7 +3210,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G28" s="66"/>
       <c r="H28" s="43" t="s">
@@ -3223,7 +3220,7 @@
         <v>41</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K28" s="44" t="s">
         <v>41</v>
@@ -3235,7 +3232,7 @@
         <v>41</v>
       </c>
       <c r="N28" s="43" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="O28" s="43" t="s">
         <v>41</v>
@@ -3281,17 +3278,17 @@
     </row>
     <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>41</v>
@@ -3303,20 +3300,20 @@
         <v>41</v>
       </c>
       <c r="O30" s="43" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
       <c r="K31" s="72" t="s">
         <v>41</v>
       </c>
@@ -3330,21 +3327,21 @@
         <v>41</v>
       </c>
       <c r="O31" s="43" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="70"/>
       <c r="M32" s="70"/>
       <c r="N32" s="70"/>
@@ -3352,29 +3349,29 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86" t="s">
-        <v>143</v>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="76" t="s">
+        <v>109</v>
       </c>
       <c r="L33" s="70" t="s">
         <v>41</v>
       </c>
       <c r="M33" s="70" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="N33" s="70" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="O33" s="71" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3393,13 +3390,13 @@
         <v>41</v>
       </c>
       <c r="M34" s="70" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="N34" s="70" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="O34" s="71" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3412,12 +3409,12 @@
       <c r="G35" s="54"/>
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="80"/>
     </row>
     <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
@@ -3425,43 +3422,43 @@
         <v>60</v>
       </c>
       <c r="C36" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>77</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>78</v>
       </c>
       <c r="E36" s="43" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="43" t="s">
-        <v>80</v>
-      </c>
       <c r="J36" s="55" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K36" s="57" t="s">
         <v>60</v>
       </c>
       <c r="L36" s="58" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="M36" s="58" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="O36" s="58" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3489,23 +3486,23 @@
         <v>28</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37" s="58"/>
       <c r="L37" s="58" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="M37" s="58" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="N37" s="58" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="O37" s="58" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3557,7 +3554,7 @@
         <v>0.248</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G40" s="47">
         <v>5.3999999999999999E-2</v>
@@ -3569,22 +3566,22 @@
         <v>0.215</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K40" s="60" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="61" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O40" s="61" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3601,7 +3598,7 @@
       <c r="E41" s="47">
         <v>1157</v>
       </c>
-      <c r="F41" s="83">
+      <c r="F41" s="73">
         <v>1021</v>
       </c>
       <c r="G41" s="47">
@@ -3620,22 +3617,22 @@
         <v>22</v>
       </c>
       <c r="L41" s="61" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="M41" s="61" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="N41" s="61" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="O41" s="61" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>61</v>
@@ -3662,7 +3659,7 @@
         <v>61</v>
       </c>
       <c r="K42" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L42" s="68" t="s">
         <v>62</v>
@@ -4306,25 +4303,25 @@
     <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="75" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="21"/>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="77"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>

--- a/workingfolder/tables/reduced_form_results/RVEffResult_new.xlsx
+++ b/workingfolder/tables/reduced_form_results/RVEffResult_new.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Myworld/Dropbox/InfVar/workingfolder/tables/reduced_form_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankofcanada-my.sharepoint.com/personal/want_bank-banque-canada_ca/Documents/MyDocs/GitHub/InfVar/workingfolder/tables/reduced_form_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7169E4-B241-8646-81A2-7A3548E00A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FF7169E4-B241-8646-81A2-7A3548E00A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95806EA2-594D-4E0C-BE00-1BAD96403D9D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23500" windowHeight="13820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
     <sheet name="RevEfficiencyTable1" sheetId="2" r:id="rId2"/>
     <sheet name="RevEfficiencyTable2" sheetId="3" r:id="rId3"/>
+    <sheet name="RevEfficiencyTable1Mean" sheetId="4" r:id="rId4"/>
+    <sheet name="RevEfficiencyTable1Var" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="155">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -503,6 +505,12 @@
   </si>
   <si>
     <t>0.931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision efficiency of uncertainty </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revision efficiency of mean forecast</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2140,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="4" customWidth="1"/>
     <col min="2" max="4" width="28" style="4" customWidth="1"/>
@@ -2140,21 +2148,21 @@
     <col min="7" max="16384" width="10" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="81" t="s">
         <v>0</v>
@@ -2163,28 +2171,28 @@
       <c r="D3" s="82"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="8"/>
       <c r="B7" s="11" t="s">
         <v>1</v>
@@ -2197,14 +2205,14 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -2213,7 +2221,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
@@ -2224,7 +2232,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2233,7 +2241,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -2244,14 +2252,14 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -2283,11 +2291,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="83" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
@@ -2297,7 +2305,7 @@
     <col min="17" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="83" t="s">
@@ -2320,7 +2328,7 @@
       <c r="N1" s="84"/>
       <c r="O1" s="85"/>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="89" t="s">
         <v>11</v>
@@ -2339,7 +2347,7 @@
       <c r="N2" s="89"/>
       <c r="O2" s="90"/>
     </row>
-    <row r="3" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="24"/>
       <c r="C3" s="23" t="s">
@@ -2380,7 +2388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="42" t="s">
         <v>40</v>
@@ -2425,7 +2433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="43" t="s">
         <v>41</v>
@@ -2470,7 +2478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -2487,7 +2495,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
     </row>
-    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="43" t="s">
         <v>19</v>
@@ -2528,7 +2536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="43" t="s">
         <v>41</v>
@@ -2569,7 +2577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -2586,7 +2594,7 @@
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
     </row>
-    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
         <v>20</v>
@@ -2631,7 +2639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
       <c r="B11" s="43" t="s">
         <v>41</v>
@@ -2676,7 +2684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -2693,7 +2701,7 @@
       <c r="N12" s="45"/>
       <c r="O12" s="43"/>
     </row>
-    <row r="13" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -2720,7 +2728,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -2747,7 +2755,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -2764,7 +2772,7 @@
       <c r="N15" s="45"/>
       <c r="O15" s="43"/>
     </row>
-    <row r="16" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="51" t="s">
         <v>60</v>
@@ -2809,7 +2817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="45" t="s">
         <v>41</v>
@@ -2852,7 +2860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="43" t="s">
         <v>23</v>
@@ -2897,7 +2905,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="46" t="s">
         <v>22</v>
@@ -2942,7 +2950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
         <v>69</v>
@@ -2987,7 +2995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="53"/>
       <c r="C21" s="64"/>
@@ -3004,7 +3012,7 @@
       <c r="N21" s="65"/>
       <c r="O21" s="65"/>
     </row>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="86" t="s">
         <v>24</v>
@@ -3023,7 +3031,7 @@
       <c r="N22" s="87"/>
       <c r="O22" s="87"/>
     </row>
-    <row r="23" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="33"/>
       <c r="C23" s="23" t="s">
@@ -3064,7 +3072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="41" t="str">
         <f>"L4.InfExp_Var_rv"</f>
@@ -3102,7 +3110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="41" t="str">
         <f>""</f>
@@ -3140,7 +3148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="41"/>
       <c r="C26" s="66"/>
@@ -3157,7 +3165,7 @@
       <c r="N26" s="43"/>
       <c r="O26" s="43"/>
     </row>
-    <row r="27" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="41" t="str">
         <f>"L5.InfExp_Var_rv"</f>
@@ -3199,7 +3207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="44"/>
       <c r="C28" s="66"/>
@@ -3238,7 +3246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="69" t="str">
         <f>""</f>
@@ -3276,7 +3284,7 @@
       <c r="N29" s="43"/>
       <c r="O29" s="43"/>
     </row>
-    <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
@@ -3303,7 +3311,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
       <c r="B31" s="74"/>
       <c r="C31" s="74"/>
@@ -3330,7 +3338,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -3347,7 +3355,7 @@
       <c r="N32" s="70"/>
       <c r="O32" s="71"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -3374,7 +3382,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
@@ -3399,7 +3407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -3416,7 +3424,7 @@
       <c r="N35" s="79"/>
       <c r="O35" s="80"/>
     </row>
-    <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="51" t="s">
         <v>60</v>
@@ -3461,7 +3469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
       <c r="B37" s="44" t="str">
         <f>""</f>
@@ -3505,7 +3513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
@@ -3522,7 +3530,7 @@
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
     </row>
-    <row r="39" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="19"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
@@ -3539,7 +3547,7 @@
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
     </row>
-    <row r="40" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="19"/>
       <c r="B40" s="46" t="s">
         <v>23</v>
@@ -3584,7 +3592,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="19"/>
       <c r="B41" s="46" t="s">
         <v>22</v>
@@ -3629,7 +3637,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19"/>
       <c r="B42" s="48" t="s">
         <v>69</v>
@@ -3674,7 +3682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
       <c r="B43" s="32"/>
       <c r="C43" s="37"/>
@@ -3691,7 +3699,7 @@
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
     </row>
-    <row r="44" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -3708,7 +3716,7 @@
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
     </row>
-    <row r="45" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -3725,7 +3733,7 @@
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
     </row>
-    <row r="46" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -3742,7 +3750,7 @@
       <c r="N46" s="31"/>
       <c r="O46" s="31"/>
     </row>
-    <row r="47" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -3759,7 +3767,7 @@
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -3776,7 +3784,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -3793,7 +3801,7 @@
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -3810,7 +3818,7 @@
       <c r="N50" s="31"/>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="19"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -3827,7 +3835,7 @@
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -3844,7 +3852,7 @@
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
     </row>
-    <row r="53" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -3861,7 +3869,7 @@
       <c r="N53" s="31"/>
       <c r="O53" s="31"/>
     </row>
-    <row r="54" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="19"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -3878,7 +3886,7 @@
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
     </row>
-    <row r="55" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="19"/>
       <c r="B55" s="32"/>
       <c r="C55" s="31"/>
@@ -3895,7 +3903,7 @@
       <c r="N55" s="31"/>
       <c r="O55" s="31"/>
     </row>
-    <row r="56" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="19"/>
       <c r="B56" s="32"/>
       <c r="C56" s="31"/>
@@ -3912,7 +3920,7 @@
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
     </row>
-    <row r="57" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19"/>
       <c r="B57" s="32"/>
       <c r="C57" s="31"/>
@@ -3929,7 +3937,7 @@
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
     </row>
-    <row r="58" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19"/>
       <c r="B58" s="32"/>
       <c r="C58" s="31"/>
@@ -3946,7 +3954,7 @@
       <c r="N58" s="31"/>
       <c r="O58" s="31"/>
     </row>
-    <row r="59" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -3963,7 +3971,7 @@
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
     </row>
-    <row r="60" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="35"/>
@@ -3980,7 +3988,7 @@
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
     </row>
-    <row r="61" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19"/>
       <c r="B61" s="33"/>
       <c r="C61" s="24"/>
@@ -3997,7 +4005,7 @@
       <c r="N61" s="24"/>
       <c r="O61" s="36"/>
     </row>
-    <row r="62" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19"/>
       <c r="B62" s="32"/>
       <c r="C62" s="37"/>
@@ -4014,7 +4022,7 @@
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
     </row>
-    <row r="63" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
@@ -4031,7 +4039,7 @@
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
     </row>
-    <row r="64" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -4048,7 +4056,7 @@
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
     </row>
-    <row r="65" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -4065,7 +4073,7 @@
       <c r="N65" s="31"/>
       <c r="O65" s="31"/>
     </row>
-    <row r="66" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -4082,7 +4090,7 @@
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
     </row>
-    <row r="67" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -4099,7 +4107,7 @@
       <c r="N67" s="31"/>
       <c r="O67" s="31"/>
     </row>
-    <row r="68" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="19"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -4116,7 +4124,7 @@
       <c r="N68" s="31"/>
       <c r="O68" s="31"/>
     </row>
-    <row r="69" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="19"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -4133,7 +4141,7 @@
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
     </row>
-    <row r="70" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="19"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4150,7 +4158,7 @@
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
     </row>
-    <row r="71" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="19"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -4167,7 +4175,7 @@
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
     </row>
-    <row r="72" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="19"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4184,7 +4192,7 @@
       <c r="N72" s="31"/>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4201,7 +4209,7 @@
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="19"/>
       <c r="B74" s="32"/>
       <c r="C74" s="31"/>
@@ -4218,7 +4226,7 @@
       <c r="N74" s="31"/>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="19"/>
       <c r="B75" s="32"/>
       <c r="C75" s="31"/>
@@ -4235,7 +4243,7 @@
       <c r="N75" s="31"/>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="19"/>
       <c r="B76" s="32"/>
       <c r="C76" s="31"/>
@@ -4252,7 +4260,7 @@
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="19"/>
       <c r="B77" s="32"/>
       <c r="C77" s="31"/>
@@ -4289,18 +4297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
     <col min="2" max="16" width="10.83203125" style="4" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
       <c r="B1" s="33"/>
       <c r="C1" s="83" t="s">
@@ -4323,7 +4331,7 @@
       <c r="N1" s="84"/>
       <c r="O1" s="85"/>
     </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="38" t="s">
         <v>30</v>
@@ -4342,7 +4350,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="33"/>
       <c r="C3" s="23" t="s">
@@ -4383,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="30" t="str">
         <f>"L.InfExp_Mean_ch"</f>
@@ -4442,7 +4450,7 @@
         <v>-0.612***</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="30" t="str">
         <f>""</f>
@@ -4501,7 +4509,7 @@
         <v>(0.012)</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="30" t="str">
         <f>"L2.InfExp_Mean_ch"</f>
@@ -4560,7 +4568,7 @@
         <v>-0.385***</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="30" t="str">
         <f>""</f>
@@ -4619,7 +4627,7 @@
         <v>(0.012)</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="str">
         <f>"L3.InfExp_Mean_ch"</f>
@@ -4678,7 +4686,7 @@
         <v>-0.241***</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="30" t="str">
         <f>""</f>
@@ -4737,7 +4745,7 @@
         <v>(0.012)</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="30" t="str">
@@ -4793,7 +4801,7 @@
         <v>-0.142***</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
       <c r="B11" s="30" t="str">
         <f>""</f>
@@ -4852,7 +4860,7 @@
         <v>(0.012)</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="30" t="str">
@@ -4908,7 +4916,7 @@
         <v>-0.078***</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="30" t="str">
         <f>""</f>
@@ -4967,7 +4975,7 @@
         <v>(0.011)</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="30" t="str">
@@ -5023,7 +5031,7 @@
         <v>-0.038***</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19"/>
       <c r="B15" s="32"/>
       <c r="C15" s="30" t="str">
@@ -5079,7 +5087,7 @@
         <v>(0.008)</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="30" t="s">
         <v>21</v>
@@ -5136,7 +5144,7 @@
         <v>0.020</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19"/>
       <c r="B17" s="30" t="str">
         <f>""</f>
@@ -5192,7 +5200,7 @@
         <v>(0.019)</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="30" t="str">
         <f>"N"</f>
@@ -5250,7 +5258,7 @@
         <v>20894</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="30" t="s">
         <v>23</v>
@@ -5307,7 +5315,7 @@
         <v>0.276</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -5324,7 +5332,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -5343,7 +5351,7 @@
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
     </row>
-    <row r="22" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="33"/>
       <c r="C22" s="23" t="s">
@@ -5384,7 +5392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="str">
         <f>"L.InfExp_Var_ch"</f>
@@ -5439,7 +5447,7 @@
         <v>-0.653***</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="str">
         <f>""</f>
@@ -5492,7 +5500,7 @@
         <v>(0.016)</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="30" t="str">
         <f>"L2.InfExp_Var_ch"</f>
@@ -5544,7 +5552,7 @@
         <v>-0.430***</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="30" t="str">
         <f>""</f>
@@ -5594,7 +5602,7 @@
         <v>(0.018)</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="str">
         <f>"L3.InfExp_Var_ch"</f>
@@ -5646,7 +5654,7 @@
         <v>-0.269***</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="str">
         <f>""</f>
@@ -5696,7 +5704,7 @@
         <v>(0.016)</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -5718,7 +5726,7 @@
         <v>-0.155***</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -5738,7 +5746,7 @@
         <v>(0.015)</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5760,7 +5768,7 @@
         <v>-0.079***</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -5780,7 +5788,7 @@
         <v>(0.012)</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -5802,7 +5810,7 @@
         <v>-0.029**</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -5822,7 +5830,7 @@
         <v>(0.009)</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
         <v>21</v>
@@ -5879,7 +5887,7 @@
         <v>-0.448***</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="29" t="str">
@@ -5932,7 +5940,7 @@
         <v>(0.076)</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
         <v>22</v>
@@ -5989,7 +5997,7 @@
         <v>21476</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
         <v>23</v>
@@ -6058,4 +6066,2643 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89FEA4F-C98A-4317-9261-E7C6AA318749}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="4" customWidth="1"/>
+    <col min="12" max="16" width="10.83203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+    </row>
+    <row r="3" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="52">
+        <v>1697</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1697</v>
+      </c>
+      <c r="E19" s="52">
+        <v>1290</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="52">
+        <v>1362</v>
+      </c>
+      <c r="H19" s="52">
+        <v>1362</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1033</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+    </row>
+    <row r="38" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+    </row>
+    <row r="39" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="36"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="B2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADAF6D1-B5CC-41A5-B954-E700BB13DBCB}">
+  <dimension ref="A1:O57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="4" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="4" customWidth="1"/>
+    <col min="12" max="16" width="10.83203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+    </row>
+    <row r="3" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="41" t="str">
+        <f>"L4.InfExp_Var_rv"</f>
+        <v>L4.InfExp_Var_rv</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="41" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="41" t="str">
+        <f>"L5.InfExp_Var_rv"</f>
+        <v>L5.InfExp_Var_rv</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="69" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C9" s="71" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D9" s="71" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="E9" s="71" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="H9" s="71" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="I9" s="71" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="J9" s="71"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="80"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="44" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="47">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D20" s="47">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E20" s="47">
+        <v>0.248</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="47">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H20" s="47">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I20" s="47">
+        <v>0.215</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1529</v>
+      </c>
+      <c r="D21" s="47">
+        <v>1157</v>
+      </c>
+      <c r="E21" s="47">
+        <v>1157</v>
+      </c>
+      <c r="F21" s="73">
+        <v>1021</v>
+      </c>
+      <c r="G21" s="47">
+        <v>1439</v>
+      </c>
+      <c r="H21" s="47">
+        <v>1091</v>
+      </c>
+      <c r="I21" s="47">
+        <v>1091</v>
+      </c>
+      <c r="J21" s="47">
+        <v>960</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+      <c r="B22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="1:15" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+    </row>
+    <row r="41" spans="1:15" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="36"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="19"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="19"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="19"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="19"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="B2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>